--- a/config_5.11/game_enter_btn_config.xlsx
+++ b/config_5.11/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="24"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
     <t>街机捕鱼游戏上方区域</t>
   </si>
   <si>
-    <t>"act_029_hlqjd",</t>
+    <t>"act_ty_hlqjd",</t>
   </si>
   <si>
     <t>欢乐敲金蛋</t>
@@ -1322,7 +1322,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,13 +1361,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1376,50 +1369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,32 +1384,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1466,14 +1400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,8 +1428,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1503,7 +1444,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,6 +1497,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1528,7 +1521,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,61 +1560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,19 +1578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,6 +1614,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1681,25 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,37 +1710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,6 +1789,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1825,48 +1854,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1875,10 +1862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1887,139 +1874,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,9 +2058,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,7 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2436,12 +2420,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2456,57 +2440,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2544,25 +2528,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,13 +2577,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2620,12 +2604,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2640,24 +2624,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2694,18 +2678,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2736,24 +2720,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2774,12 +2758,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2794,13 +2778,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2822,12 +2806,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2842,13 +2826,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2885,13 +2869,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2932,18 +2916,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2954,7 +2938,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2966,7 +2950,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2977,7 +2961,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2988,7 +2972,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2999,7 +2983,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3010,7 +2994,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3057,13 +3041,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3137,7 +3121,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3161,12 +3145,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3181,61 +3165,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3268,13 +3252,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3307,13 +3291,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3346,13 +3330,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3386,13 +3370,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3428,29 +3412,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3471,8 +3455,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3495,7 +3479,7 @@
       <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3601,11 +3585,11 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6123,53 +6107,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6190,12 +6174,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6210,55 +6194,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6285,7 +6269,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6324,12 +6308,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6344,13 +6328,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6384,12 +6368,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6404,44 +6388,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6457,18 +6441,18 @@
   <sheetPr/>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6489,13 +6473,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6508,13 +6492,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6531,13 +6515,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6550,13 +6534,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6570,13 +6554,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6589,13 +6573,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6608,13 +6592,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6627,13 +6611,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6646,7 +6630,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6657,8 +6641,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -7977,12 +7961,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -7997,13 +7981,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
